--- a/biology/Zoologie/Cynodrome/Cynodrome.xlsx
+++ b/biology/Zoologie/Cynodrome/Cynodrome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un cynodrome est un circuit dévolu aux courses de lévriers.
 Il y a plusieurs types de courses, dont le coursing fait partie. Il compte deux genres d'épreuves : 
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> France
-Pistes en gazon
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pistes en gazon
 Cynodrome de Aire-sur-la-Lys (Pas-de-Calais)
 Cynodrome de Laferté-sur-Amance (Haute-Marne)
 Cynodrome de Liverdy-en-Brie (Seine-et-Marne)
@@ -547,23 +564,193 @@
 Cynodrome d'Iloa (Puy-de-Dôme); en activité de 1991 à 2002
 Cynodrome de Soissons (Aisne)
 Cynodrome de Carnoux-en-Provence (Bouches-du-Rhône)
-Cynodrome d'Oraison (Alpes-de-Haute-Provence)
- Royaume-Uni
-Il y a 23 cynodromes au Royaume-Uni au 15 septembre 2021[1], dont :
+Cynodrome d'Oraison (Alpes-de-Haute-Provence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cynodrome</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cynodrome</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les principaux cynodromes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il y a 23 cynodromes au Royaume-Uni au 15 septembre 2021, dont :
 (en)Brighton &amp; Hove Greyhound Stadium (Sussex de l'Est)
-Sunderland Greyhound Stadium (en) (Tyne and Wear)
- Suisse
-Cynodrome de Lotzwil
+Sunderland Greyhound Stadium (en) (Tyne and Wear)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cynodrome</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cynodrome</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les principaux cynodromes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Suisse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cynodrome de Lotzwil
 Cynodrome de Lostallo
-Cynodrome de Rifferswil
- Belgique
-Cynodrome d'Awans
+Cynodrome de Rifferswil</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cynodrome</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cynodrome</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les principaux cynodromes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Belgique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cynodrome d'Awans
 Cynodrome de Beringen
-Cynodrome de Westerlo
- Maroc
-Cynodrome de Casablanca
- Italie
-Cynodrome de Castano Primo
+Cynodrome de Westerlo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cynodrome</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cynodrome</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les principaux cynodromes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maroc</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cynodrome de Casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cynodrome</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cynodrome</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les principaux cynodromes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cynodrome de Castano Primo
 Cynodrome désaffecté
 Cynodrome de Rome</t>
         </is>
